--- a/ISA/Proyectos/ISA_P1. Puerta Automatica/Documentación TIA/Variables físicas.xlsx
+++ b/ISA/Proyectos/ISA_P1. Puerta Automatica/Documentación TIA/Variables físicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0\Documents\ARI\ISA\Proyectos\ISA_P1. Puerta Automatica\Documentación TIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B9490-FBC5-4C34-AEEE-AB28A8180B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CAB775-C2F0-4C4F-9494-B56D8231562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC Tags" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Guardamotor 1Q1</t>
-  </si>
-  <si>
-    <t>Tabla de variables estándar</t>
   </si>
   <si>
     <t>Bool</t>
@@ -228,21 +225,70 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,12 +296,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,17 +645,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -589,648 +664,564 @@
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
